--- a/figuras_db/CandidateAvailability.xlsx
+++ b/figuras_db/CandidateAvailability.xlsx
@@ -56,12 +56,6 @@
     <t>Day</t>
   </si>
   <si>
-    <t>Day Identifier</t>
-  </si>
-  <si>
-    <t>Hour Identifier</t>
-  </si>
-  <si>
     <t>StartHour</t>
   </si>
   <si>
@@ -75,6 +69,12 @@
   </si>
   <si>
     <t>Fim do bloco de disponibilidade</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Int</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="G4:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:I9"/>
+      <selection activeCell="I9" sqref="G4:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,32 +505,32 @@
         <v>9</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
